--- a/data/trans_orig/ip32_a_es-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_es-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACEBCAF1-97BB-4F20-B358-351E1E5CF7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B30F8A86-29AB-45CC-99AB-125B06B64626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F1C77ADF-6839-4777-AD06-E800BE673AB6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06757D96-14EF-4921-A739-EE2C9494E0F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="393">
-  <si>
-    <t>menores según el año que llegó a España en 2012 (Tasa respuesta: 2,62%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="393">
+  <si>
+    <t>Menores según el año que llegó a España en 2012 (Tasa respuesta: 2,62%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -117,6 +117,9 @@
     <t>19,89%</t>
   </si>
   <si>
+    <t>72,46%</t>
+  </si>
+  <si>
     <t>34,54%</t>
   </si>
   <si>
@@ -147,88 +150,88 @@
     <t>8,36%</t>
   </si>
   <si>
-    <t>36,62%</t>
+    <t>35,94%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>81,01%</t>
+    <t>80,25%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>83,93%</t>
+    <t>81,16%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
   </si>
   <si>
     <t>20,95%</t>
   </si>
   <si>
-    <t>80,43%</t>
+    <t>83,54%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>39,25%</t>
+    <t>40,11%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>82,72%</t>
+    <t>77,54%</t>
   </si>
   <si>
     <t>19,99%</t>
   </si>
   <si>
-    <t>49,87%</t>
+    <t>50,65%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>75,48%</t>
+    <t>71,72%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>42,18%</t>
+    <t>42,62%</t>
   </si>
   <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>68,56%</t>
+    <t>78,29%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>75,91%</t>
+    <t>75,46%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -246,892 +249,892 @@
     <t>9,9%</t>
   </si>
   <si>
-    <t>41,16%</t>
+    <t>39,87%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>32,06%</t>
+    <t>22,69%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>41,29%</t>
+    <t>50,34%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>36,28%</t>
+    <t>36,87%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>29,63%</t>
+    <t>29,57%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
     <t>58,78%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a España en 2015 (Tasa respuesta: 1,51%)</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>menores según el año que llegó a España en 2015 (Tasa respuesta: 1,51%)</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>30,74%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -1140,82 +1143,79 @@
     <t>18,9%</t>
   </si>
   <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>30,88%</t>
+    <t>33,47%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>28,64%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>46,89%</t>
+    <t>41,89%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>27,34%</t>
+    <t>25,71%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>40,78%</t>
+    <t>39,76%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>17,95%</t>
+    <t>18,35%</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1226,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1322,39 +1322,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1406,7 +1406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1517,13 +1517,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1532,6 +1525,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1596,19 +1596,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D097E17-9032-4532-9561-BC71BA664604}">
-  <dimension ref="A1:Q93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10655A58-EFF1-4BBE-BE69-6816651B66D0}">
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3014,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3064,7 @@
         <v>910</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
@@ -3059,13 +3079,13 @@
         <v>910</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3243,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5">
         <v>2015</v>
@@ -3241,7 +3261,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3256,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3271,7 +3291,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,7 +3312,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3307,7 +3327,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3322,7 +3342,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3363,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3358,7 +3378,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3373,7 +3393,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3409,7 +3429,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3424,7 +3444,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3460,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3475,7 +3495,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3505,13 +3525,13 @@
         <v>839</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -3520,13 +3540,13 @@
         <v>839</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3562,7 +3582,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3577,7 +3597,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3612,13 @@
         <v>1747</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3607,13 +3627,13 @@
         <v>903</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3622,13 +3642,13 @@
         <v>2651</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,7 +3669,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3658,13 +3678,13 @@
         <v>878</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3673,13 +3693,13 @@
         <v>878</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3714,13 @@
         <v>2006</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3715,7 +3735,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3724,13 +3744,13 @@
         <v>2006</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3765,13 @@
         <v>1111</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3766,7 +3786,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3775,13 +3795,13 @@
         <v>1111</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3817,7 +3837,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3832,7 +3852,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3867,13 @@
         <v>982</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3862,13 +3882,13 @@
         <v>692</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -3877,13 +3897,13 @@
         <v>1674</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,7 +3924,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -3913,13 +3933,13 @@
         <v>878</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -3928,13 +3948,13 @@
         <v>878</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,7 +4010,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" s="5">
         <v>2015</v>
@@ -4008,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4023,7 +4043,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4038,7 +4058,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,7 +4079,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4074,7 +4094,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4089,7 +4109,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4125,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -4140,7 +4160,7 @@
         <v>12</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,7 +4181,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4176,7 +4196,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4191,7 +4211,7 @@
         <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4226,13 @@
         <v>923</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4227,7 +4247,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -4236,13 +4256,13 @@
         <v>923</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4277,13 @@
         <v>951</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -4272,13 +4292,13 @@
         <v>567</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -4287,13 +4307,13 @@
         <v>1518</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -4323,13 +4343,13 @@
         <v>1670</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
@@ -4338,13 +4358,13 @@
         <v>1670</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4379,13 @@
         <v>2973</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4380,7 +4400,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M56" s="7">
         <v>3</v>
@@ -4389,13 +4409,13 @@
         <v>2973</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4430,13 @@
         <v>857</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4431,7 +4451,7 @@
         <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -4440,13 +4460,13 @@
         <v>857</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4481,13 @@
         <v>857</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -4476,13 +4496,13 @@
         <v>1680</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -4491,13 +4511,13 @@
         <v>2538</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4532,13 @@
         <v>951</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4533,7 +4553,7 @@
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -4542,13 +4562,13 @@
         <v>951</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4583,13 @@
         <v>1809</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4584,7 +4604,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -4593,13 +4613,13 @@
         <v>1809</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,7 +4640,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -4629,13 +4649,13 @@
         <v>2587</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M61" s="7">
         <v>3</v>
@@ -4644,13 +4664,13 @@
         <v>2587</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
@@ -4680,13 +4700,13 @@
         <v>934</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -4695,13 +4715,13 @@
         <v>934</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,7 +4777,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B64" s="5">
         <v>2015</v>
@@ -4775,7 +4795,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4790,7 +4810,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -4805,7 +4825,7 @@
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4846,7 @@
         <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4841,7 +4861,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -4856,7 +4876,7 @@
         <v>12</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4892,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -4907,7 +4927,7 @@
         <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4943,7 +4963,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -4958,7 +4978,7 @@
         <v>12</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4993,13 @@
         <v>1128</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -4994,7 +5014,7 @@
         <v>12</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M68" s="7">
         <v>1</v>
@@ -5003,13 +5023,13 @@
         <v>1128</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5044,13 @@
         <v>1255</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -5039,13 +5059,13 @@
         <v>1942</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M69" s="7">
         <v>3</v>
@@ -5054,13 +5074,13 @@
         <v>3197</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,7 +5101,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -5090,13 +5110,13 @@
         <v>1540</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -5105,13 +5125,13 @@
         <v>1540</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5152,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -5141,13 +5161,13 @@
         <v>1100</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -5156,13 +5176,13 @@
         <v>1100</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5197,13 @@
         <v>2263</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -5192,13 +5212,13 @@
         <v>1058</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M72" s="7">
         <v>3</v>
@@ -5207,13 +5227,13 @@
         <v>3321</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,10 +5281,10 @@
         <v>146</v>
       </c>
       <c r="P73" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q73" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5305,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5300,7 +5320,7 @@
         <v>12</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -5315,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,14 +5350,14 @@
         <v>2844</v>
       </c>
       <c r="E75" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
@@ -5351,7 +5371,7 @@
         <v>12</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M75" s="7">
         <v>3</v>
@@ -5360,13 +5380,13 @@
         <v>2844</v>
       </c>
       <c r="O75" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P75" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P75" s="7" t="s">
+      <c r="Q75" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5401,13 @@
         <v>942</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
@@ -5396,13 +5416,13 @@
         <v>966</v>
       </c>
       <c r="J76" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M76" s="7">
         <v>2</v>
@@ -5411,13 +5431,13 @@
         <v>1908</v>
       </c>
       <c r="O76" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q76" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q76" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,7 +5458,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -5447,13 +5467,13 @@
         <v>1029</v>
       </c>
       <c r="J77" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -5462,13 +5482,13 @@
         <v>1029</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q77" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q77" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,37 +5562,37 @@
         <v>12</v>
       </c>
       <c r="G79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>0</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="7" t="s">
+      <c r="M79" s="7">
+        <v>0</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q79" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="M79" s="7">
-        <v>0</v>
-      </c>
-      <c r="N79" s="7">
-        <v>0</v>
-      </c>
-      <c r="O79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,37 +5613,37 @@
         <v>12</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <v>0</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L80" s="7" t="s">
+      <c r="M80" s="7">
+        <v>0</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q80" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="M80" s="7">
-        <v>0</v>
-      </c>
-      <c r="N80" s="7">
-        <v>0</v>
-      </c>
-      <c r="O80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q80" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,37 +5664,37 @@
         <v>12</v>
       </c>
       <c r="G81" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="7" t="s">
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q81" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="M81" s="7">
-        <v>0</v>
-      </c>
-      <c r="N81" s="7">
-        <v>0</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q81" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,37 +5715,37 @@
         <v>12</v>
       </c>
       <c r="G82" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>0</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" s="7" t="s">
+      <c r="M82" s="7">
+        <v>0</v>
+      </c>
+      <c r="N82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q82" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="M82" s="7">
-        <v>0</v>
-      </c>
-      <c r="N82" s="7">
-        <v>0</v>
-      </c>
-      <c r="O82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,14 +5760,14 @@
         <v>2051</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
@@ -5761,7 +5781,7 @@
         <v>12</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M83" s="7">
         <v>2</v>
@@ -5770,13 +5790,13 @@
         <v>2051</v>
       </c>
       <c r="O83" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q83" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q83" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5811,13 @@
         <v>2207</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H84" s="7">
         <v>6</v>
@@ -5806,13 +5826,13 @@
         <v>5885</v>
       </c>
       <c r="J84" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K84" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K84" s="7" t="s">
+      <c r="L84" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M84" s="7">
         <v>8</v>
@@ -5821,13 +5841,13 @@
         <v>8091</v>
       </c>
       <c r="O84" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P84" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P84" s="7" t="s">
+      <c r="Q84" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q84" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +5868,7 @@
         <v>12</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H85" s="7">
         <v>4</v>
@@ -5857,13 +5877,13 @@
         <v>3209</v>
       </c>
       <c r="J85" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="L85" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M85" s="7">
         <v>4</v>
@@ -5872,13 +5892,13 @@
         <v>3209</v>
       </c>
       <c r="O85" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P85" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P85" s="7" t="s">
+      <c r="Q85" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5913,13 @@
         <v>4720</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H86" s="7">
         <v>2</v>
@@ -5908,13 +5928,13 @@
         <v>2003</v>
       </c>
       <c r="J86" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M86" s="7">
         <v>7</v>
@@ -5923,13 +5943,13 @@
         <v>6723</v>
       </c>
       <c r="O86" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P86" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P86" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="Q86" s="7" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5964,13 @@
         <v>4187</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H87" s="7">
         <v>3</v>
@@ -5959,13 +5979,13 @@
         <v>2924</v>
       </c>
       <c r="J87" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L87" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M87" s="7">
         <v>7</v>
@@ -5974,13 +5994,13 @@
         <v>7111</v>
       </c>
       <c r="O87" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q87" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P87" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q87" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,13 +6015,13 @@
         <v>5063</v>
       </c>
       <c r="E88" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H88" s="7">
         <v>3</v>
@@ -6010,13 +6030,13 @@
         <v>2522</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M88" s="7">
         <v>8</v>
@@ -6025,13 +6045,13 @@
         <v>7585</v>
       </c>
       <c r="O88" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q88" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6066,13 @@
         <v>2062</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
@@ -6061,13 +6081,13 @@
         <v>736</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M89" s="7">
         <v>3</v>
@@ -6076,13 +6096,13 @@
         <v>2798</v>
       </c>
       <c r="O89" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q89" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P89" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q89" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6117,13 @@
         <v>4653</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H90" s="7">
         <v>1</v>
@@ -6112,13 +6132,13 @@
         <v>910</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="M90" s="7">
         <v>6</v>
@@ -6127,13 +6147,13 @@
         <v>5563</v>
       </c>
       <c r="O90" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P90" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P90" s="7" t="s">
+      <c r="Q90" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q90" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6168,13 @@
         <v>1924</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H91" s="7">
         <v>5</v>
@@ -6163,10 +6183,10 @@
         <v>4245</v>
       </c>
       <c r="J91" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K91" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>228</v>
@@ -6205,7 +6225,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H92" s="7">
         <v>3</v>
@@ -6287,6 +6307,11 @@
       </c>
       <c r="Q93" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6307,8 +6332,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9134B43-D7F7-4F31-9C82-2983250562E7}">
-  <dimension ref="A1:Q93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0501DF-548A-44CB-BAB4-B13E3D07CD80}">
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6324,7 +6349,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7159,7 +7184,7 @@
         <v>937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
@@ -7189,13 +7214,13 @@
         <v>937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,13 +7316,13 @@
         <v>938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,7 +7577,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,7 +7888,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5">
         <v>2015</v>
@@ -7881,7 +7906,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7890,13 +7915,13 @@
         <v>759</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7905,13 +7930,13 @@
         <v>759</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,7 +7957,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7941,13 +7966,13 @@
         <v>536</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -7956,13 +7981,13 @@
         <v>536</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,13 +8002,13 @@
         <v>892</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -7992,13 +8017,13 @@
         <v>993</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -8007,13 +8032,13 @@
         <v>1884</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,13 +8053,13 @@
         <v>943</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -8043,13 +8068,13 @@
         <v>874</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -8058,13 +8083,13 @@
         <v>1818</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,7 +8110,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -8100,7 +8125,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -8115,7 +8140,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8155,13 @@
         <v>644</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -8145,13 +8170,13 @@
         <v>564</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -8160,13 +8185,13 @@
         <v>1208</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,13 +8206,13 @@
         <v>943</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -8202,7 +8227,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -8211,13 +8236,13 @@
         <v>943</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,7 +8263,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -8253,7 +8278,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -8268,7 +8293,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -8304,7 +8329,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -8319,7 +8344,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,7 +8365,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
@@ -8349,13 +8374,13 @@
         <v>2577</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -8364,13 +8389,13 @@
         <v>2577</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,7 +8416,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -8400,13 +8425,13 @@
         <v>1492</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -8415,13 +8440,13 @@
         <v>1492</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8436,13 +8461,13 @@
         <v>1862</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -8451,13 +8476,13 @@
         <v>778</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -8466,13 +8491,13 @@
         <v>2640</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8487,13 +8512,13 @@
         <v>983</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -8508,7 +8533,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -8517,13 +8542,13 @@
         <v>983</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>82</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,7 +8569,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -8559,7 +8584,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -8574,7 +8599,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8630,7 +8655,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" s="5">
         <v>2015</v>
@@ -8663,22 +8688,22 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8714,22 +8739,22 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8759,13 +8784,13 @@
         <v>915</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -8774,13 +8799,13 @@
         <v>915</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8816,22 +8841,22 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8867,22 +8892,22 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8912,13 +8937,13 @@
         <v>601</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -8927,13 +8952,13 @@
         <v>601</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8963,13 +8988,13 @@
         <v>1863</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -8978,13 +9003,13 @@
         <v>2944</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9020,22 +9045,22 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9065,13 +9090,13 @@
         <v>931</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -9080,13 +9105,13 @@
         <v>931</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -9122,22 +9147,22 @@
         <v>12</v>
       </c>
       <c r="L58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7">
-        <v>0</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -9173,22 +9198,22 @@
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0</v>
-      </c>
-      <c r="N59" s="7">
-        <v>0</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -9224,22 +9249,22 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M60" s="7">
-        <v>0</v>
-      </c>
-      <c r="N60" s="7">
-        <v>0</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -9275,22 +9300,22 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0</v>
-      </c>
-      <c r="N61" s="7">
-        <v>0</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -9326,22 +9351,22 @@
         <v>12</v>
       </c>
       <c r="L62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M62" s="7">
-        <v>0</v>
-      </c>
-      <c r="N62" s="7">
-        <v>0</v>
-      </c>
-      <c r="O62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -9397,7 +9422,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B64" s="5">
         <v>2015</v>
@@ -9577,7 +9602,7 @@
         <v>715</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>11</v>
@@ -9592,7 +9617,7 @@
         <v>715</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>11</v>
@@ -9628,7 +9653,7 @@
         <v>1167</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>11</v>
@@ -9643,13 +9668,13 @@
         <v>1167</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -9817,7 +9842,7 @@
         <v>1165</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
@@ -9847,13 +9872,13 @@
         <v>1165</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -9868,7 +9893,7 @@
         <v>713</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>11</v>
@@ -9898,13 +9923,13 @@
         <v>713</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -10182,7 +10207,7 @@
         <v>12</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -10191,13 +10216,13 @@
         <v>759</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M79" s="7">
         <v>1</v>
@@ -10206,13 +10231,13 @@
         <v>759</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -10227,13 +10252,13 @@
         <v>937</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -10242,13 +10267,13 @@
         <v>536</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M80" s="7">
         <v>2</v>
@@ -10257,13 +10282,13 @@
         <v>1473</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -10278,13 +10303,13 @@
         <v>892</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H81" s="7">
         <v>2</v>
@@ -10293,13 +10318,13 @@
         <v>1907</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M81" s="7">
         <v>3</v>
@@ -10308,7 +10333,7 @@
         <v>2799</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>338</v>
@@ -10359,7 +10384,7 @@
         <v>3471</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>345</v>
@@ -10380,13 +10405,13 @@
         <v>672</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>86</v>
+        <v>347</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
@@ -10395,13 +10420,13 @@
         <v>1167</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M83" s="7">
         <v>2</v>
@@ -10410,13 +10435,13 @@
         <v>1840</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -10431,13 +10456,13 @@
         <v>644</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H84" s="7">
         <v>2</v>
@@ -10446,13 +10471,13 @@
         <v>1165</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>353</v>
+        <v>202</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M84" s="7">
         <v>3</v>
@@ -10461,13 +10486,13 @@
         <v>1809</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -10482,13 +10507,13 @@
         <v>2024</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H85" s="7">
         <v>2</v>
@@ -10497,13 +10522,13 @@
         <v>1863</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M85" s="7">
         <v>4</v>
@@ -10512,13 +10537,13 @@
         <v>3887</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -10539,7 +10564,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -10554,7 +10579,7 @@
         <v>12</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -10569,7 +10594,7 @@
         <v>12</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -10584,13 +10609,13 @@
         <v>2253</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H87" s="7">
         <v>1</v>
@@ -10599,13 +10624,13 @@
         <v>931</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="M87" s="7">
         <v>3</v>
@@ -10614,13 +10639,13 @@
         <v>3185</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -10635,13 +10660,13 @@
         <v>713</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H88" s="7">
         <v>3</v>
@@ -10650,13 +10675,13 @@
         <v>2577</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M88" s="7">
         <v>4</v>
@@ -10665,13 +10690,13 @@
         <v>3290</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>378</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -10692,7 +10717,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H89" s="7">
         <v>2</v>
@@ -10701,13 +10726,13 @@
         <v>1492</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M89" s="7">
         <v>2</v>
@@ -10716,13 +10741,13 @@
         <v>1492</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -10737,13 +10762,13 @@
         <v>1862</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H90" s="7">
         <v>1</v>
@@ -10752,13 +10777,13 @@
         <v>778</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M90" s="7">
         <v>3</v>
@@ -10767,13 +10792,13 @@
         <v>2640</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>388</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -10809,7 +10834,7 @@
         <v>12</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M91" s="7">
         <v>1</v>
@@ -10845,7 +10870,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
@@ -10860,7 +10885,7 @@
         <v>12</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -10875,7 +10900,7 @@
         <v>12</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -10927,6 +10952,11 @@
       </c>
       <c r="Q93" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ip32_a_es-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_es-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B30F8A86-29AB-45CC-99AB-125B06B64626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECADAB3-38F7-4F9E-9EAA-D0CF6107CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06757D96-14EF-4921-A739-EE2C9494E0F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E17E6EE-F74C-4F13-926D-B352A509470F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="394">
   <si>
     <t>Menores según el año que llegó a España en 2012 (Tasa respuesta: 2,62%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>—%</t>
@@ -90,7 +90,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -117,7 +117,7 @@
     <t>19,89%</t>
   </si>
   <si>
-    <t>72,46%</t>
+    <t>70,81%</t>
   </si>
   <si>
     <t>34,54%</t>
@@ -129,7 +129,7 @@
     <t>78,76%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -150,91 +150,88 @@
     <t>8,36%</t>
   </si>
   <si>
-    <t>35,94%</t>
+    <t>37,73%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>80,25%</t>
+    <t>66,4%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>81,16%</t>
+    <t>83,93%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
   </si>
   <si>
     <t>20,95%</t>
   </si>
   <si>
-    <t>83,54%</t>
+    <t>80,72%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>40,11%</t>
+    <t>38,92%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>77,54%</t>
+    <t>83,64%</t>
   </si>
   <si>
     <t>19,99%</t>
   </si>
   <si>
-    <t>50,65%</t>
+    <t>56,95%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>71,72%</t>
+    <t>72,1%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>42,62%</t>
+    <t>42,89%</t>
   </si>
   <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>78,29%</t>
+    <t>69,25%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>75,46%</t>
+    <t>75,91%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -249,973 +246,979 @@
     <t>9,9%</t>
   </si>
   <si>
-    <t>39,87%</t>
+    <t>40,42%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>22,69%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>50,34%</t>
+    <t>50,77%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>36,87%</t>
+    <t>36,65%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>29,57%</t>
+    <t>32,73%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>57,74%</t>
+    <t>66,77%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>34,15%</t>
+    <t>30,85%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a España en 2016 (Tasa respuesta: 1,51%)</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a España en 2015 (Tasa respuesta: 1,51%)</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>29,63%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>33,47%</t>
-  </si>
-  <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>41,89%</t>
+    <t>46,78%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>25,71%</t>
+    <t>26,63%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>2,85%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>39,76%</t>
+    <t>42,04%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>18,35%</t>
+    <t>21,86%</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10655A58-EFF1-4BBE-BE69-6816651B66D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF43AE3E-D95A-4782-9955-3110D422AB78}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3939,7 +3942,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -3954,7 +3957,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +4013,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="5">
         <v>2015</v>
@@ -4028,37 +4031,37 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="7" t="s">
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,37 +4082,37 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,37 +4133,37 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="7" t="s">
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,37 +4184,37 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="7" t="s">
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,14 +4229,14 @@
         <v>923</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -4256,13 +4259,13 @@
         <v>923</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4280,13 @@
         <v>951</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -4292,13 +4295,13 @@
         <v>567</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -4307,13 +4310,13 @@
         <v>1518</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4337,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -4343,13 +4346,13 @@
         <v>1670</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
@@ -4358,13 +4361,13 @@
         <v>1670</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,14 +4382,14 @@
         <v>2973</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M56" s="7">
         <v>3</v>
@@ -4409,13 +4412,13 @@
         <v>2973</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,14 +4433,14 @@
         <v>857</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
@@ -4451,7 +4454,7 @@
         <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -4460,13 +4463,13 @@
         <v>857</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4484,13 @@
         <v>857</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -4496,13 +4499,13 @@
         <v>1680</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -4511,13 +4514,13 @@
         <v>2538</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4535,13 @@
         <v>951</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4553,7 +4556,7 @@
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -4562,13 +4565,13 @@
         <v>951</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,14 +4586,14 @@
         <v>1809</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -4613,13 +4616,13 @@
         <v>1809</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,7 +4643,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -4649,13 +4652,13 @@
         <v>2587</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M61" s="7">
         <v>3</v>
@@ -4664,13 +4667,13 @@
         <v>2587</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P61" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P61" s="7" t="s">
+      <c r="Q61" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,7 +4694,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
@@ -4700,13 +4703,13 @@
         <v>934</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -4715,13 +4718,13 @@
         <v>934</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,7 +4780,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B64" s="5">
         <v>2015</v>
@@ -4795,37 +4798,37 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L64" s="7" t="s">
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M64" s="7">
-        <v>0</v>
-      </c>
-      <c r="N64" s="7">
-        <v>0</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,37 +4849,37 @@
         <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L65" s="7" t="s">
+      <c r="M65" s="7">
+        <v>0</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M65" s="7">
-        <v>0</v>
-      </c>
-      <c r="N65" s="7">
-        <v>0</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,37 +4900,37 @@
         <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" s="7" t="s">
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M66" s="7">
-        <v>0</v>
-      </c>
-      <c r="N66" s="7">
-        <v>0</v>
-      </c>
-      <c r="O66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,37 +4951,37 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>0</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L67" s="7" t="s">
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q67" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M67" s="7">
-        <v>0</v>
-      </c>
-      <c r="N67" s="7">
-        <v>0</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4996,13 @@
         <v>1128</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -5014,7 +5017,7 @@
         <v>12</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M68" s="7">
         <v>1</v>
@@ -5023,13 +5026,13 @@
         <v>1128</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5047,13 @@
         <v>1255</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -5059,13 +5062,13 @@
         <v>1942</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M69" s="7">
         <v>3</v>
@@ -5074,13 +5077,13 @@
         <v>3197</v>
       </c>
       <c r="O69" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q69" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,7 +5104,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -5110,13 +5113,13 @@
         <v>1540</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -5125,13 +5128,13 @@
         <v>1540</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -5161,13 +5164,13 @@
         <v>1100</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -5176,13 +5179,13 @@
         <v>1100</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5200,13 @@
         <v>2263</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -5212,13 +5215,13 @@
         <v>1058</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M72" s="7">
         <v>3</v>
@@ -5227,13 +5230,13 @@
         <v>3321</v>
       </c>
       <c r="O72" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q72" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5251,13 @@
         <v>2199</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -5263,13 +5266,13 @@
         <v>842</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -5278,13 +5281,13 @@
         <v>3042</v>
       </c>
       <c r="O73" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q73" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,37 +5308,37 @@
         <v>12</v>
       </c>
       <c r="G74" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>0</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="7" t="s">
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q74" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M74" s="7">
-        <v>0</v>
-      </c>
-      <c r="N74" s="7">
-        <v>0</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,14 +5353,14 @@
         <v>2844</v>
       </c>
       <c r="E75" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>12</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M75" s="7">
         <v>3</v>
@@ -5380,13 +5383,13 @@
         <v>2844</v>
       </c>
       <c r="O75" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P75" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P75" s="7" t="s">
+      <c r="Q75" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5404,13 @@
         <v>942</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
@@ -5416,13 +5419,13 @@
         <v>966</v>
       </c>
       <c r="J76" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M76" s="7">
         <v>2</v>
@@ -5431,13 +5434,13 @@
         <v>1908</v>
       </c>
       <c r="O76" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q76" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q76" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -5467,13 +5470,13 @@
         <v>1029</v>
       </c>
       <c r="J77" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -5482,13 +5485,13 @@
         <v>1029</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q77" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q77" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,37 +5565,37 @@
         <v>12</v>
       </c>
       <c r="G79" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>0</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="7" t="s">
+      <c r="M79" s="7">
+        <v>0</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q79" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M79" s="7">
-        <v>0</v>
-      </c>
-      <c r="N79" s="7">
-        <v>0</v>
-      </c>
-      <c r="O79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,37 +5616,37 @@
         <v>12</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <v>0</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L80" s="7" t="s">
+      <c r="M80" s="7">
+        <v>0</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q80" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M80" s="7">
-        <v>0</v>
-      </c>
-      <c r="N80" s="7">
-        <v>0</v>
-      </c>
-      <c r="O80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q80" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,37 +5667,37 @@
         <v>12</v>
       </c>
       <c r="G81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="7" t="s">
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q81" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M81" s="7">
-        <v>0</v>
-      </c>
-      <c r="N81" s="7">
-        <v>0</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q81" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,37 +5718,37 @@
         <v>12</v>
       </c>
       <c r="G82" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>0</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" s="7" t="s">
+      <c r="M82" s="7">
+        <v>0</v>
+      </c>
+      <c r="N82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q82" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M82" s="7">
-        <v>0</v>
-      </c>
-      <c r="N82" s="7">
-        <v>0</v>
-      </c>
-      <c r="O82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,14 +5763,14 @@
         <v>2051</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
@@ -5781,7 +5784,7 @@
         <v>12</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M83" s="7">
         <v>2</v>
@@ -5790,13 +5793,13 @@
         <v>2051</v>
       </c>
       <c r="O83" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q83" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q83" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5814,13 @@
         <v>2207</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H84" s="7">
         <v>6</v>
@@ -5826,13 +5829,13 @@
         <v>5885</v>
       </c>
       <c r="J84" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K84" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K84" s="7" t="s">
+      <c r="L84" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M84" s="7">
         <v>8</v>
@@ -5841,13 +5844,13 @@
         <v>8091</v>
       </c>
       <c r="O84" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P84" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P84" s="7" t="s">
+      <c r="Q84" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q84" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,7 +5871,7 @@
         <v>12</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H85" s="7">
         <v>4</v>
@@ -5877,13 +5880,13 @@
         <v>3209</v>
       </c>
       <c r="J85" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="L85" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M85" s="7">
         <v>4</v>
@@ -5892,13 +5895,13 @@
         <v>3209</v>
       </c>
       <c r="O85" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P85" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P85" s="7" t="s">
+      <c r="Q85" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5916,13 @@
         <v>4720</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H86" s="7">
         <v>2</v>
@@ -5928,13 +5931,13 @@
         <v>2003</v>
       </c>
       <c r="J86" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M86" s="7">
         <v>7</v>
@@ -5943,13 +5946,13 @@
         <v>6723</v>
       </c>
       <c r="O86" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P86" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P86" s="7" t="s">
+      <c r="Q86" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q86" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,7 +6033,7 @@
         <v>2522</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>204</v>
@@ -6081,13 +6084,13 @@
         <v>736</v>
       </c>
       <c r="J89" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M89" s="7">
         <v>3</v>
@@ -6096,13 +6099,13 @@
         <v>2798</v>
       </c>
       <c r="O89" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P89" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P89" s="7" t="s">
+      <c r="Q89" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q89" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6120,13 @@
         <v>4653</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H90" s="7">
         <v>1</v>
@@ -6132,13 +6135,13 @@
         <v>910</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M90" s="7">
         <v>6</v>
@@ -6147,13 +6150,13 @@
         <v>5563</v>
       </c>
       <c r="O90" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q90" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P90" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q90" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6171,13 @@
         <v>1924</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H91" s="7">
         <v>5</v>
@@ -6183,13 +6186,13 @@
         <v>4245</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="M91" s="7">
         <v>7</v>
@@ -6198,13 +6201,13 @@
         <v>6169</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,7 +6228,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H92" s="7">
         <v>3</v>
@@ -6234,13 +6237,13 @@
         <v>2841</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M92" s="7">
         <v>3</v>
@@ -6249,13 +6252,13 @@
         <v>2841</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,7 +6314,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6332,7 +6335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0501DF-548A-44CB-BAB4-B13E3D07CD80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23DAC5-B9D0-4C72-AC77-0B203FF2E5D4}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6349,7 +6352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7184,7 +7187,7 @@
         <v>937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
@@ -7214,13 +7217,13 @@
         <v>937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7319,13 @@
         <v>938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,7 +7340,7 @@
         <v>672</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
@@ -7367,13 +7370,13 @@
         <v>672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,7 +7544,7 @@
         <v>1088</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
@@ -7571,13 +7574,13 @@
         <v>1088</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,7 +7909,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -7915,13 +7918,13 @@
         <v>759</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7930,13 +7933,13 @@
         <v>759</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,7 +7960,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7966,13 +7969,13 @@
         <v>536</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -7981,13 +7984,13 @@
         <v>536</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +8005,13 @@
         <v>892</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -8017,13 +8020,13 @@
         <v>993</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -8032,13 +8035,13 @@
         <v>1884</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8056,13 @@
         <v>943</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -8068,13 +8071,13 @@
         <v>874</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -8083,13 +8086,13 @@
         <v>1818</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,7 +8113,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -8140,7 +8143,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8158,13 @@
         <v>644</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -8170,13 +8173,13 @@
         <v>564</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -8185,13 +8188,13 @@
         <v>1208</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +8209,13 @@
         <v>943</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -8236,13 +8239,13 @@
         <v>943</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,7 +8266,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -8293,7 +8296,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8314,7 +8317,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -8344,7 +8347,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8365,7 +8368,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
@@ -8374,13 +8377,13 @@
         <v>2577</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -8389,13 +8392,13 @@
         <v>2577</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8416,7 +8419,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -8425,13 +8428,13 @@
         <v>1492</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -8440,13 +8443,13 @@
         <v>1492</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8461,13 +8464,13 @@
         <v>1862</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -8476,13 +8479,13 @@
         <v>778</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -8491,13 +8494,13 @@
         <v>2640</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8518,7 +8521,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -8542,13 +8545,13 @@
         <v>983</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8569,7 +8572,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -8599,7 +8602,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8655,7 +8658,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="5">
         <v>2015</v>
@@ -8784,13 +8787,13 @@
         <v>915</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -8799,13 +8802,13 @@
         <v>915</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8937,13 +8940,13 @@
         <v>601</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -8952,13 +8955,13 @@
         <v>601</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8988,13 +8991,13 @@
         <v>1863</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -9003,13 +9006,13 @@
         <v>2944</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9090,13 +9093,13 @@
         <v>931</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -9105,13 +9108,13 @@
         <v>931</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -9422,7 +9425,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B64" s="5">
         <v>2015</v>
@@ -9602,7 +9605,7 @@
         <v>715</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>11</v>
@@ -9617,13 +9620,13 @@
         <v>715</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -9653,7 +9656,7 @@
         <v>1167</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>11</v>
@@ -9668,13 +9671,13 @@
         <v>1167</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>318</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -9842,7 +9845,7 @@
         <v>1165</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
@@ -9872,13 +9875,13 @@
         <v>1165</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -9893,7 +9896,7 @@
         <v>713</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>11</v>
@@ -9923,13 +9926,13 @@
         <v>713</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -10207,7 +10210,7 @@
         <v>12</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -10216,13 +10219,13 @@
         <v>759</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M79" s="7">
         <v>1</v>
@@ -10231,13 +10234,13 @@
         <v>759</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -10252,13 +10255,13 @@
         <v>937</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -10267,13 +10270,13 @@
         <v>536</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>196</v>
+        <v>328</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M80" s="7">
         <v>2</v>
@@ -10282,13 +10285,13 @@
         <v>1473</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -10303,13 +10306,13 @@
         <v>892</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H81" s="7">
         <v>2</v>
@@ -10318,13 +10321,13 @@
         <v>1907</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M81" s="7">
         <v>3</v>
@@ -10333,13 +10336,13 @@
         <v>2799</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="P81" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q81" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q81" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -10354,13 +10357,13 @@
         <v>943</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H82" s="7">
         <v>3</v>
@@ -10369,13 +10372,13 @@
         <v>2528</v>
       </c>
       <c r="J82" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K82" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K82" s="7" t="s">
+      <c r="L82" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M82" s="7">
         <v>4</v>
@@ -10384,13 +10387,13 @@
         <v>3471</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P82" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q82" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -10405,13 +10408,13 @@
         <v>672</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
@@ -10420,13 +10423,13 @@
         <v>1167</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M83" s="7">
         <v>2</v>
@@ -10435,13 +10438,13 @@
         <v>1840</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -10456,13 +10459,13 @@
         <v>644</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H84" s="7">
         <v>2</v>
@@ -10471,13 +10474,13 @@
         <v>1165</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>202</v>
+        <v>353</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M84" s="7">
         <v>3</v>
@@ -10486,13 +10489,13 @@
         <v>1809</v>
       </c>
       <c r="O84" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P84" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P84" s="7" t="s">
+      <c r="Q84" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q84" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -10507,13 +10510,13 @@
         <v>2024</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H85" s="7">
         <v>2</v>
@@ -10522,13 +10525,13 @@
         <v>1863</v>
       </c>
       <c r="J85" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L85" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M85" s="7">
         <v>4</v>
@@ -10537,13 +10540,13 @@
         <v>3887</v>
       </c>
       <c r="O85" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P85" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P85" s="7" t="s">
+      <c r="Q85" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -10564,7 +10567,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -10579,7 +10582,7 @@
         <v>12</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -10594,7 +10597,7 @@
         <v>12</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -10609,13 +10612,13 @@
         <v>2253</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H87" s="7">
         <v>1</v>
@@ -10624,7 +10627,7 @@
         <v>931</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>227</v>
+        <v>368</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>11</v>
@@ -10666,7 +10669,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>374</v>
+        <v>104</v>
       </c>
       <c r="H88" s="7">
         <v>3</v>
@@ -10675,13 +10678,13 @@
         <v>2577</v>
       </c>
       <c r="J88" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K88" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K88" s="7" t="s">
+      <c r="L88" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M88" s="7">
         <v>4</v>
@@ -10690,13 +10693,13 @@
         <v>3290</v>
       </c>
       <c r="O88" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P88" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P88" s="7" t="s">
+      <c r="Q88" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -10717,7 +10720,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H89" s="7">
         <v>2</v>
@@ -10741,7 +10744,7 @@
         <v>1492</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>11</v>
@@ -10798,7 +10801,7 @@
         <v>388</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>131</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -10813,13 +10816,13 @@
         <v>983</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
@@ -10834,7 +10837,7 @@
         <v>12</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M91" s="7">
         <v>1</v>
@@ -10843,13 +10846,13 @@
         <v>983</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P91" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -10870,7 +10873,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
@@ -10885,7 +10888,7 @@
         <v>12</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -10900,7 +10903,7 @@
         <v>12</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -10956,7 +10959,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
